--- a/data/Lo Espejo.xlsx
+++ b/data/Lo Espejo.xlsx
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Lo Espejo.xlsx
+++ b/data/Lo Espejo.xlsx
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Lo Espejo.xlsx
+++ b/data/Lo Espejo.xlsx
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F137" t="n">

--- a/data/Lo Espejo.xlsx
+++ b/data/Lo Espejo.xlsx
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Lo Espejo.xlsx
+++ b/data/Lo Espejo.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ENEL DISTRIBUCIÓN S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">

--- a/data/Lo Espejo.xlsx
+++ b/data/Lo Espejo.xlsx
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F143" t="n">
